--- a/src/Formatos/Extracto1.xlsx
+++ b/src/Formatos/Extracto1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\Desktop\auto_javarturs\src\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0A669-7B58-4DBA-BCB4-39EAAA246933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604AE237-6704-4DC2-943F-A31067297250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="2835" windowWidth="19410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="78" r:id="rId1"/>
@@ -788,6 +788,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -803,6 +806,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -889,15 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,59 +1031,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="4 Imagen" descr="Descripción: D:\usuario\Documents\logovigilados,.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4191000" y="1066800"/>
-          <a:ext cx="1771651" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -1107,7 +1054,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1162,7 +1109,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1176,6 +1123,50 @@
         <a:xfrm>
           <a:off x="3409950" y="7572375"/>
           <a:ext cx="1684538" cy="1743903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>386953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08D6340-8F8D-9E5D-1E7D-C9C1D4BA0635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="1066800"/>
+          <a:ext cx="1914525" cy="558403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,10 +1590,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="56"/>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
@@ -1614,50 +1605,50 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="56"/>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="56" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="56"/>
-      <c r="G16" s="62"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
@@ -1671,10 +1662,10 @@
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="67"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -1686,10 +1677,10 @@
       <c r="E19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="92">
         <v>0</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
@@ -1703,10 +1694,10 @@
       <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1718,85 +1709,85 @@
       <c r="E21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="92">
         <v>0</v>
       </c>
-      <c r="G21" s="90"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79">
         <v>2006</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="74">
+      <c r="A26" s="77">
         <v>2019</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76">
+      <c r="B26" s="80"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79">
         <v>336392</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
@@ -1806,25 +1797,25 @@
       <c r="E27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="18" t="s">
         <v>12</v>
       </c>
@@ -1834,25 +1825,25 @@
       <c r="E29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="67"/>
+      <c r="G29" s="70"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="10" t="s">
         <v>12</v>
       </c>
@@ -1862,25 +1853,25 @@
       <c r="E31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="67"/>
+      <c r="G31" s="70"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="12" t="s">
         <v>12</v>
       </c>
@@ -1890,65 +1881,65 @@
       <c r="E33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="70"/>
     </row>
     <row r="34" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="85"/>
-      <c r="B34" s="86"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="91"/>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
